--- a/biology/Botanique/Stromatinia_cepivora/Stromatinia_cepivora.xlsx
+++ b/biology/Botanique/Stromatinia_cepivora/Stromatinia_cepivora.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Stromatinia cepivora est un champignon de la famille des Sclerotiniaceae qui provoque une pourriture blanche sur ognon, ail et échalote.
 Sa forme stérile est décrite sous le nom de Sclerotium cepivorum.
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sur les bulbes, le champignon forme un feutrage blanc dans lequel apparaissent des sclérotes[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sur les bulbes, le champignon forme un feutrage blanc dans lequel apparaissent des sclérotes.
 </t>
         </is>
       </c>
